--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.65633322337497</v>
+        <v>12.63794265826775</v>
       </c>
       <c r="C11" t="n">
-        <v>43.64591927475775</v>
+        <v>43.54251939895862</v>
       </c>
       <c r="D11" t="n">
-        <v>53.26265000578038</v>
+        <v>53.30232373194267</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.70538532409887</v>
+        <v>11.35146741730869</v>
       </c>
       <c r="C12" t="n">
-        <v>40.39898318013335</v>
+        <v>39.08061071548587</v>
       </c>
       <c r="D12" t="n">
-        <v>49.18692075535066</v>
+        <v>48.2177825398167</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.78151933339073</v>
+        <v>13.31488464706227</v>
       </c>
       <c r="C13" t="n">
-        <v>44.10372895248581</v>
+        <v>45.99816974506187</v>
       </c>
       <c r="D13" t="n">
-        <v>53.6588475119545</v>
+        <v>56.0519403110134</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.59769711642411</v>
+        <v>12.62849976322373</v>
       </c>
       <c r="C11" t="n">
-        <v>43.41871394966918</v>
+        <v>43.54969720162576</v>
       </c>
       <c r="D11" t="n">
-        <v>53.1045003384999</v>
+        <v>53.14216675466478</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.868805291763367</v>
+        <v>0.08397454463076008</v>
       </c>
       <c r="C2" t="n">
-        <v>34.9435312621824</v>
+        <v>0.2846891972479788</v>
       </c>
       <c r="D2" t="n">
-        <v>43.91196821693755</v>
+        <v>0.3655222813644092</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.85006762198901</v>
+        <v>0.1026246696525275</v>
       </c>
       <c r="C3" t="n">
-        <v>45.89019250487848</v>
+        <v>0.3536459581244753</v>
       </c>
       <c r="D3" t="n">
-        <v>55.19444026185523</v>
+        <v>0.4593849542654244</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.732729604285108</v>
+        <v>0.08217184897100913</v>
       </c>
       <c r="C4" t="n">
-        <v>34.58582800228319</v>
+        <v>0.2782965699081589</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49966452771065</v>
+        <v>0.3605497008749695</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.43910928456981</v>
+        <v>0.08626241185751066</v>
       </c>
       <c r="C5" t="n">
-        <v>37.22169725322744</v>
+        <v>0.2954622873376688</v>
       </c>
       <c r="D5" t="n">
-        <v>46.82004622328702</v>
+        <v>0.3716904927300527</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.32012176235947</v>
+        <v>0.08204286840888127</v>
       </c>
       <c r="C6" t="n">
-        <v>37.39528083060506</v>
+        <v>0.2804984638475174</v>
       </c>
       <c r="D6" t="n">
-        <v>45.75838917762244</v>
+        <v>0.3505975630106953</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.21557504200646</v>
+        <v>0.09709077482068704</v>
       </c>
       <c r="C7" t="n">
-        <v>44.45556751430814</v>
+        <v>0.333073377996609</v>
       </c>
       <c r="D7" t="n">
-        <v>62.63473293851426</v>
+        <v>0.4213476427694312</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.8705345945077</v>
+        <v>0.1023887105888044</v>
       </c>
       <c r="C8" t="n">
-        <v>45.94805790502273</v>
+        <v>0.3528072597246075</v>
       </c>
       <c r="D8" t="n">
-        <v>54.96447296593821</v>
+        <v>0.4583673068130129</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.04882818214421</v>
+        <v>0.1038486647202979</v>
       </c>
       <c r="C9" t="n">
-        <v>46.68164922041869</v>
+        <v>0.3582048917794047</v>
       </c>
       <c r="D9" t="n">
-        <v>57.12372912278519</v>
+        <v>0.4632503307418028</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.66114627482301</v>
+        <v>0.01425862136944517</v>
       </c>
       <c r="C10" t="n">
-        <v>13.0705812607192</v>
+        <v>0.06568163973402837</v>
       </c>
       <c r="D10" t="n">
-        <v>14.53315898303975</v>
+        <v>0.07283074480543644</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.62849976322373</v>
+        <v>0.1726468298438461</v>
       </c>
       <c r="C11" t="n">
-        <v>43.54969720162576</v>
+        <v>0.5885271702538963</v>
       </c>
       <c r="D11" t="n">
-        <v>53.14216675466478</v>
+        <v>0.6329686551970206</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.35146741730869</v>
+        <v>0.1739011346967043</v>
       </c>
       <c r="C12" t="n">
-        <v>39.08061071548587</v>
+        <v>0.5927849048363097</v>
       </c>
       <c r="D12" t="n">
-        <v>48.2177825398167</v>
+        <v>0.638192983381075</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.31488464706227</v>
+        <v>0.1683269991575694</v>
       </c>
       <c r="C13" t="n">
-        <v>45.99816974506187</v>
+        <v>0.5718857038649489</v>
       </c>
       <c r="D13" t="n">
-        <v>56.0519403110134</v>
+        <v>0.622267901316688</v>
       </c>
     </row>
   </sheetData>
